--- a/Emissao/Dados_Emissao/Editado/Stefhany_Beatriz_Carvalho.xlsx
+++ b/Emissao/Dados_Emissao/Editado/Stefhany_Beatriz_Carvalho.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA63"/>
+  <dimension ref="A1:AB51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,6 +562,11 @@
       <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Frota Itens</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>ZeradoMes</t>
         </is>
       </c>
     </row>
@@ -635,6 +640,11 @@
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -706,6 +716,11 @@
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -777,17 +792,18 @@
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>531</v>
-      </c>
-      <c r="C5" t="n">
-        <v>990</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
           <t>400554</t>
@@ -798,51 +814,17 @@
           <t>ALEX PEREIRA</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>110439</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>DIRCEU BENEDITO DE ARAUJO</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2025-10-02</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.642,29</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.763,49</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
@@ -884,78 +866,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>531</v>
-      </c>
-      <c r="C6" t="n">
-        <v>990</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>400554</t>
+          <t>405152</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ALEX PEREIRA</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>110586</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>CLAUDINEI GONCALVES DIAS</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2024-10-13</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2025-10-13</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>10</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.060,78</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.212,86</t>
-        </is>
-      </c>
+          <t>ALIANCA J L COR SEGS LTDA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
@@ -997,12 +942,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1034,12 +980,12 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1074,6 +1020,11 @@
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1083,12 +1034,12 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>405152</t>
+          <t>403077</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ALIANCA J L COR SEGS LTDA</t>
+          <t>ALMEIDA LIMA CORRETORA DE SEGURO</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -1105,12 +1056,12 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1145,6 +1096,11 @@
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1154,12 +1110,12 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>403077</t>
+          <t>400610</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ALMEIDA LIMA CORRETORA DE SEGURO</t>
+          <t>ANDERSON LOVADINE</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -1216,6 +1172,11 @@
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1247,12 +1208,12 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1287,6 +1248,11 @@
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1296,12 +1262,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>400610</t>
+          <t>400070</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ANDERSON LOVADINE</t>
+          <t>ARGEU BARBOSA DO AMARAL</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1318,12 +1284,12 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -1358,6 +1324,11 @@
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1389,12 +1360,12 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -1429,6 +1400,11 @@
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1438,12 +1414,12 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>400070</t>
+          <t>503374</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ARGEU BARBOSA DO AMARAL</t>
+          <t>AVEIRO ADM E COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1460,12 +1436,12 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -1500,6 +1476,11 @@
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1509,12 +1490,12 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>503374</t>
+          <t>497359</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AVEIRO ADM E COR DE SEGS LTDA</t>
+          <t>BARTOLOMEU CORR E ADM DE SEGUROS</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1531,12 +1512,12 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>930</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>ITAPETININGA MERCADO</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -1571,6 +1552,11 @@
       </c>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1580,7 +1566,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>497359</t>
+          <t>502752</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1602,12 +1588,12 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>930</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>ITAPETININGA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -1642,72 +1628,39 @@
       </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>531</v>
-      </c>
-      <c r="C16" t="n">
-        <v>990</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>502752</t>
+          <t>504870</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>BARTOLOMEU CORR E ADM DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>110525</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>MILTON DE OLIVEIRA SANTANA</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>2025-10-08</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
-        <v>6</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.818,33</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.952,52</t>
-        </is>
-      </c>
+          <t>BENELIFE CORRETORA DE SEGUROS LT</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
@@ -1749,12 +1702,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1764,12 +1718,12 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>504870</t>
+          <t>485048</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>BENELIFE CORRETORA DE SEGUROS LT</t>
+          <t>BIANCA APARECIDA ZAMPRONIO LUZ</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1826,6 +1780,11 @@
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1835,12 +1794,12 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>485048</t>
+          <t>498845</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>BIANCA APARECIDA ZAMPRONIO LUZ</t>
+          <t>BLINDASEG CORRETORA DE SEGUROS L</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1897,6 +1856,11 @@
       </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1906,12 +1870,12 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>498845</t>
+          <t>438767</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>BLINDASEG CORRETORA DE SEGUROS L</t>
+          <t>CAMPOS DE OLIVEIRA COR. DE SEGS.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1928,12 +1892,12 @@
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>930</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>ITAPETININGA MERCADO</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -1968,6 +1932,11 @@
       </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1977,7 +1946,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>438767</t>
+          <t>502743</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1999,12 +1968,12 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
-          <t>930</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>ITAPETININGA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2039,6 +2008,11 @@
       </c>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2048,12 +2022,12 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>502743</t>
+          <t>445248</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CAMPOS DE OLIVEIRA COR. DE SEGS.</t>
+          <t>DEX10 CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -2110,17 +2084,18 @@
       </c>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
-        <v>531</v>
-      </c>
-      <c r="C22" t="n">
-        <v>927</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
           <t>445248</t>
@@ -2131,60 +2106,26 @@
           <t>DEX10 CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>20987</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>MARCOS ANTONIO VALERIO</t>
-        </is>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>2025-10-04</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
-        <v>6</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 541,22</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 581,12</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
@@ -2217,12 +2158,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2232,12 +2174,12 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>445248</t>
+          <t>512436</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>DEX10 CORRETORA DE SEGUROS LTDA</t>
+          <t>F D DE OLIVEIRA CORRETAGEM DE SE</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -2254,12 +2196,12 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -2294,6 +2236,11 @@
       </c>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2303,12 +2250,12 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>512436</t>
+          <t>513337</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>F D DE OLIVEIRA CORRETAGEM DE SE</t>
+          <t>FERNANDO BORTOLLI CORRETORA DE S</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -2365,72 +2312,39 @@
       </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>531</v>
-      </c>
-      <c r="C25" t="n">
-        <v>917</v>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>513337</t>
+          <t>403893</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FERNANDO BORTOLLI CORRETORA DE S</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2511</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>BARZAN MATERIAIS DE CONSTRUCAO</t>
-        </is>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2025-10-04</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>6</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.965,43</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.479,45</t>
-        </is>
-      </c>
+          <t>HELENE TEZOTO CONS ADM COR SEG</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
@@ -2472,78 +2386,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>Equipamento</t>
-        </is>
-      </c>
+      <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>531</v>
-      </c>
-      <c r="C26" t="n">
-        <v>990</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>513337</t>
+          <t>492528</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FERNANDO BORTOLLI CORRETORA DE S</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>110211</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>IZAKAYA DAISHO LTDA</t>
-        </is>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>2024-10-06</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2025-10-06</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>10</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5.122,49</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5.500,52</t>
-        </is>
-      </c>
+          <t>J.D PIVA CORRETORA DE SEGUROS LT</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
@@ -2585,12 +2462,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2600,20 +2478,20 @@
         <v>531</v>
       </c>
       <c r="C27" t="n">
-        <v>990</v>
+        <v>927</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>513337</t>
+          <t>486226</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FERNANDO BORTOLLI CORRETORA DE S</t>
+          <t>JAMIL CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>110385</v>
+        <v>21570</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2623,7 +2501,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>JOSE ROBERTO CONDE 12463309890</t>
+          <t>DIRCEU PASCOAL DOS SANTOS</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -2631,30 +2509,30 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.555,01</t>
+          <t xml:space="preserve"> 460,13</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.669,76</t>
+          <t xml:space="preserve"> 494,08</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
@@ -2700,76 +2578,39 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Auto</t>
+          <t>Residencial Sob Medida</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
-        <v>531</v>
-      </c>
-      <c r="C28" t="n">
-        <v>927</v>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>403893</t>
+          <t>405178</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>HELENE TEZOTO CONS ADM COR SEG</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>21010</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>JOAO GUILHERME FANTINI PIQUEIRA</t>
-        </is>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>2025-10-11</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
-        <v>6</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 167,62</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 179,98</t>
-        </is>
-      </c>
+          <t>KFS CORRETORA DE SEGUROS LTDA.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
@@ -2811,78 +2652,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>531</v>
-      </c>
-      <c r="C29" t="n">
-        <v>990</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>403893</t>
+          <t>480718</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>HELENE TEZOTO CONS ADM COR SEG</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>110397</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>ADELIA DA SILVA NUNES</t>
-        </is>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
-        <v>4</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.754,50</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.883,98</t>
-        </is>
-      </c>
+          <t>KJ CORRETORA DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
@@ -2924,78 +2728,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>531</v>
-      </c>
-      <c r="C30" t="n">
-        <v>990</v>
-      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>403893</t>
+          <t>512340</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>HELENE TEZOTO CONS ADM COR SEG</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>110502</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>SOUSA &amp; LOPES ASSESSORIA LTDA</t>
-        </is>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>2025-10-04</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
-        <v>10</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.266,23</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.507,27</t>
-        </is>
-      </c>
+          <t>LID SILVA CORRETORA DE SEGUROS L</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
@@ -3037,12 +2804,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3052,12 +2820,12 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>492528</t>
+          <t>510704</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>J.D PIVA CORRETORA DE SEGUROS LT</t>
+          <t>M BUCK CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -3114,72 +2882,39 @@
       </c>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
-        <v>531</v>
-      </c>
-      <c r="C32" t="n">
-        <v>990</v>
-      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>486226</t>
+          <t>440020</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>JAMIL CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>110265</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>ARCA VEICULOS LTDA EPP</t>
-        </is>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>2024-09-25</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>2025-09-25</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
-        <v>10</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.115,41</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.640,52</t>
-        </is>
-      </c>
+          <t>MAFEROLI CORR. SEGUROS LTDA ME</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
@@ -3221,87 +2956,50 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
-        <v>531</v>
-      </c>
-      <c r="C33" t="n">
-        <v>990</v>
-      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>405178</t>
+          <t>440020</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>KFS CORRETORA DE SEGUROS LTDA.</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>110300</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>RONALDO CRUZ DE AMORIM</t>
-        </is>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>2025-10-08</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
-        <v>10</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.369,98</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.544,88</t>
-        </is>
-      </c>
+          <t>MAFEROLI CORR. SEGUROS LTDA ME</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -3334,78 +3032,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
-        <v>531</v>
-      </c>
-      <c r="C34" t="n">
-        <v>990</v>
-      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>405178</t>
+          <t>445572</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>KFS CORRETORA DE SEGUROS LTDA.</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>110301</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>JOSE ELCIO LYRA</t>
-        </is>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>2025-10-04</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
-        <v>6</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.931,20</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.073,72</t>
-        </is>
-      </c>
+          <t>NC CHAVES CORRETORA DE SEGUROS L</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
@@ -3447,12 +3108,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3462,12 +3124,12 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>480718</t>
+          <t>401185</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KJ CORRETORA DE SEGUROS LTDA</t>
+          <t>PEDRO TADEU CHRIST</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -3524,72 +3186,39 @@
       </c>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
-        <v>531</v>
-      </c>
-      <c r="C36" t="n">
-        <v>927</v>
-      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>512340</t>
+          <t>512338</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>LID SILVA CORRETORA DE SEGUROS L</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>21054</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>ERIC TAVARES DA SILVA</t>
-        </is>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>2024-10-24</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>2025-10-24</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
-        <v>4</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 225,09</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 241,69</t>
-        </is>
-      </c>
+          <t>PL4 CORRETORA DE SEGS E SERVICOS</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
@@ -3631,78 +3260,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
-        <v>531</v>
-      </c>
-      <c r="C37" t="n">
-        <v>990</v>
-      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>512340</t>
+          <t>500182</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>LID SILVA CORRETORA DE SEGUROS L</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>110294</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>JESSICA ALINE DE CARVALHO RANGEL</t>
-        </is>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>2025-10-07</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
-        <v>10</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.186,02</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.347,34</t>
-        </is>
-      </c>
+          <t>PRIME RISKS CORRETORA DE SEG LTD</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
@@ -3744,78 +3336,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
-        <v>531</v>
-      </c>
-      <c r="C38" t="n">
-        <v>990</v>
-      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>512340</t>
+          <t>505708</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>LID SILVA CORRETORA DE SEGUROS L</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>110505</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>RICARDO SOARES DA SILVA</t>
-        </is>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
-        <v>10</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.610,52</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.729,37</t>
-        </is>
-      </c>
+          <t>RENATA CORRETORA DE SEGUROS SORO</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
@@ -3857,12 +3412,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3872,12 +3428,12 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>510704</t>
+          <t>404299</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>M BUCK CORRETORA DE SEGUROS LTDA</t>
+          <t>RRPM COR DE SEGS LTDA ME</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -3934,6 +3490,11 @@
       </c>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3943,12 +3504,12 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>440020</t>
+          <t>497649</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MAFEROLI CORR. SEGUROS LTDA ME</t>
+          <t>RWM CORR E ADM DE SEG LTDA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -3965,12 +3526,12 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>930</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>ITAPETININGA MERCADO</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -4005,6 +3566,11 @@
       </c>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4014,12 +3580,12 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>440020</t>
+          <t>502630</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MAFEROLI CORR. SEGUROS LTDA ME</t>
+          <t>RWM CORR E ADM DE SEG LTDA</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -4036,12 +3602,12 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -4076,72 +3642,39 @@
       </c>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
-        <v>531</v>
-      </c>
-      <c r="C42" t="n">
-        <v>990</v>
-      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>445572</t>
+          <t>404261</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NC CHAVES CORRETORA DE SEGUROS L</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>110523</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>JOAO SERGIO FEDSCHENKO</t>
-        </is>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>2024-10-25</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>2025-10-25</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
-        <v>10</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.992,82</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.139,89</t>
-        </is>
-      </c>
+          <t>SIA CORRETORA DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
@@ -4183,12 +3716,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4198,12 +3732,12 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>401185</t>
+          <t>404261</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>PEDRO TADEU CHRIST</t>
+          <t>SIA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -4220,12 +3754,12 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
@@ -4260,6 +3794,11 @@
       </c>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4269,12 +3808,12 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>512338</t>
+          <t>488624</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>PL4 CORRETORA DE SEGS E SERVICOS</t>
+          <t>SQUAGGIO CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -4291,12 +3830,12 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>930</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>ITAPETININGA MERCADO</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
@@ -4331,6 +3870,11 @@
       </c>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -4340,12 +3884,12 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>500182</t>
+          <t>502638</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>PRIME RISKS CORRETORA DE SEG LTD</t>
+          <t>SQUAGGIO CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -4402,72 +3946,39 @@
       </c>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
-        <v>531</v>
-      </c>
-      <c r="C46" t="n">
-        <v>927</v>
-      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>505708</t>
+          <t>440692</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>RENATA CORRETORA DE SEGUROS SORO</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>20879</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>IVONE APARECIDA TANZI</t>
-        </is>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>2024-09-29</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
-        <v>6</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 258,37</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 277,39</t>
-        </is>
-      </c>
+          <t>TORRINHA CORR DE SEGS LTDA ME</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
@@ -4509,12 +4020,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -4524,12 +4036,12 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>404299</t>
+          <t>440692</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>RRPM COR DE SEGS LTDA ME</t>
+          <t>TORRINHA CORR DE SEGS LTDA ME</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -4546,12 +4058,12 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -4586,6 +4098,11 @@
       </c>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -4595,12 +4112,12 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>497649</t>
+          <t>493800</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>RWM CORR E ADM DE SEG LTDA</t>
+          <t>VLR SEGS E ASSISTENCIAS LTDA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -4617,12 +4134,12 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>930</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>ITAPETININGA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
@@ -4657,6 +4174,11 @@
       </c>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -4666,12 +4188,12 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>502630</t>
+          <t>405004</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>RWM CORR E ADM DE SEG LTDA</t>
+          <t>VOLBA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -4728,72 +4250,39 @@
       </c>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
-        <v>531</v>
-      </c>
-      <c r="C50" t="n">
-        <v>990</v>
-      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>404261</t>
+          <t>404516</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SIA CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>110161</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>AGUINALDO DE OLIVEIRA SILVA</t>
-        </is>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>2024-09-22</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>2025-09-22</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
-        <v>6</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.063,87</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.289,98</t>
-        </is>
-      </c>
+          <t>W CORRETORA E ADMINISTRADORA DE</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
@@ -4835,78 +4324,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
-        <v>531</v>
-      </c>
-      <c r="C51" t="n">
-        <v>990</v>
-      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>404261</t>
+          <t>506500</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SIA CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>110486</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>GABRIELA MARICONI BARBOSA PENHA</t>
-        </is>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>2024-10-06</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>2025-10-06</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
-        <v>10</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.764,17</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.894,36</t>
-        </is>
-      </c>
+          <t>WRK PLURAL CORR E ADM DE SEGUROS</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
@@ -4948,1160 +4400,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>404261</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>SIA CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>929</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>PIRACICABA MERCADO</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>377.163.818-65</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>488624</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>SQUAGGIO CORRETORA DE SEGUROS LT</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>ITAPETININGA MERCADO</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>377.163.818-65</t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>502638</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>SQUAGGIO CORRETORA DE SEGUROS LT</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>928</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>377.163.818-65</t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y54" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>440692</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>TORRINHA CORR DE SEGS LTDA ME</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>928</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>377.163.818-65</t>
-        </is>
-      </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y55" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>440692</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>TORRINHA CORR DE SEGS LTDA ME</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>929</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>PIRACICABA MERCADO</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>377.163.818-65</t>
-        </is>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y56" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>531</v>
-      </c>
-      <c r="C57" t="n">
-        <v>990</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>493800</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>VLR SEGS E ASSISTENCIAS LTDA</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>110257</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>ANTONIO MANOEL DA SILVA JUNIOR E OUTROS</t>
-        </is>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>2024-09-19</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
-        <v>10</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 46.122,04</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 49.525,85</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>928</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>377.163.818-65</t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>Frota</t>
-        </is>
-      </c>
-      <c r="AA57" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B58" t="n">
-        <v>531</v>
-      </c>
-      <c r="C58" t="n">
-        <v>990</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>493800</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>VLR SEGS E ASSISTENCIAS LTDA</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>110572</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>TELMA CRISTINA FOLEGOTTO BARBOZA</t>
-        </is>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>2024-09-28</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>2025-09-28</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
-        <v>6</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.280,34</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.522,42</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>928</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>377.163.818-65</t>
-        </is>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B59" t="n">
-        <v>531</v>
-      </c>
-      <c r="C59" t="n">
-        <v>927</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>405004</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>VOLBA CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>20994</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>MARCOS ALFONSI</t>
-        </is>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>2025-10-09</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
-        <v>4</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 392,39</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 421,34</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>928</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>377.163.818-65</t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
-      <c r="AA59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B60" t="n">
-        <v>531</v>
-      </c>
-      <c r="C60" t="n">
-        <v>990</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>404516</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>W CORRETORA E ADMINISTRADORA DE</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>110601</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>CAMILA DA SILVA TOLEDO RADIGUIERI</t>
-        </is>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>2025-10-09</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
-        <v>10</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.442,88</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.549,36</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>928</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>377.163.818-65</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B61" t="n">
-        <v>531</v>
-      </c>
-      <c r="C61" t="n">
-        <v>927</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>506500</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>WRK PLURAL CORR E ADM DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>20886</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>VITOR DIEGO DE TOLEDO ALVES</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
-        <v>1</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 292,29</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 313,85</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>928</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>377.163.818-65</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
-      <c r="AA61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B62" t="n">
-        <v>531</v>
-      </c>
-      <c r="C62" t="n">
-        <v>927</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>506500</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>WRK PLURAL CORR E ADM DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>20971</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>FERNANDA CARDOSO DE SOUZA</t>
-        </is>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>2025-10-03</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
-        <v>1</v>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 212,03</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 227,67</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>928</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>377.163.818-65</t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X62" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y62" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
-      <c r="AA62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B63" t="n">
-        <v>531</v>
-      </c>
-      <c r="C63" t="n">
-        <v>990</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>506500</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>WRK PLURAL CORR E ADM DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>110291</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>ELZA FRANCISCA VOLPATO</t>
-        </is>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
-        <v>10</v>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5.753,25</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.177,83</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>928</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>377.163.818-65</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA63" t="inlineStr"/>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
